--- a/data/trans_dic/P56$auxiliar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2480346964011139</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1047083691048457</v>
+        <v>0.1047083691048456</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.1065409942717916</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1464692519100267</v>
+        <v>0.1464692519100268</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04305474192304865</v>
+        <v>0.04159070785656384</v>
       </c>
     </row>
     <row r="6">
@@ -741,7 +741,7 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.5339828015418504</v>
+        <v>0.5229890397910882</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
@@ -749,15 +749,15 @@
         <v>0.7785196546737368</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4648328316596378</v>
+        <v>0.4558550125279889</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.5062111466870066</v>
+        <v>0.4696100070130287</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3481518808886666</v>
+        <v>0.3532731509512743</v>
       </c>
     </row>
     <row r="7">
@@ -827,7 +827,7 @@
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.06529682199214754</v>
+        <v>0.06263002374244724</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
@@ -835,7 +835,7 @@
       </c>
       <c r="M8" s="5" t="inlineStr"/>
       <c r="N8" s="5" t="n">
-        <v>0.06941459136345057</v>
+        <v>0.06587425869928484</v>
       </c>
     </row>
     <row r="9">
@@ -847,25 +847,25 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.6377158667607939</v>
+        <v>0.6677822266022986</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.3439847976687135</v>
+        <v>0.3539003847247439</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.5108822068426478</v>
+        <v>0.4860910061945249</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.583482197685675</v>
+        <v>0.5014574448512291</v>
       </c>
       <c r="M9" s="5" t="inlineStr"/>
       <c r="N9" s="5" t="n">
-        <v>0.3442516767748712</v>
+        <v>0.3534939559984663</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3404928479106476</v>
+        <v>0.3404928479106474</v>
       </c>
     </row>
     <row r="11">
@@ -927,23 +927,23 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1444693859731497</v>
+        <v>0.1658507071688745</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.1001579348611411</v>
+        <v>0.1000189466467704</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.198856707104237</v>
+        <v>0.2134555364538062</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
-        <v>0.05946692759779934</v>
+        <v>0.05959426402733346</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.2183991127120594</v>
+        <v>0.2133594757208717</v>
       </c>
     </row>
     <row r="12">
@@ -957,23 +957,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.5214219312075749</v>
+        <v>0.5497350431134451</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.7092856590767327</v>
+        <v>0.6250142286360006</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.5419208846920075</v>
+        <v>0.5382871927479048</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.4388592732714175</v>
+        <v>0.4373214740026696</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.4764249405916793</v>
+        <v>0.4899826400176291</v>
       </c>
     </row>
     <row r="13">
@@ -997,7 +997,7 @@
         <v>0.09957857884387111</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2239153875434736</v>
+        <v>0.2239153875434737</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.158707513008384</v>
@@ -1021,7 +1021,7 @@
         <v>0.08929281074508387</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2505917590627479</v>
+        <v>0.250591759062748</v>
       </c>
     </row>
     <row r="14">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03182241900093103</v>
+        <v>0.03202308639654399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.130921030883746</v>
+        <v>0.1365516449268339</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1848401024135146</v>
+        <v>0.1904061523684989</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01664084702866902</v>
+        <v>0.01693599647723808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03255726409867376</v>
+        <v>0.01865129197976057</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1824718282446613</v>
+        <v>0.1801938723206316</v>
       </c>
     </row>
     <row r="15">
@@ -1075,37 +1075,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.1882677093564086</v>
+        <v>0.1695563330306263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2352033679680288</v>
+        <v>0.2840399250930955</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.332954455719185</v>
+        <v>0.341349346267734</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5625675986963035</v>
+        <v>0.6715381914293356</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3026918722127353</v>
+        <v>0.2452686779255648</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3792844918467196</v>
+        <v>0.3608880602274691</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4296040721686548</v>
+        <v>0.4266718057938458</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1572489741057678</v>
+        <v>0.1540679630101043</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1451045626077553</v>
+        <v>0.1442332863291223</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2144685796179505</v>
+        <v>0.2184386712284966</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3338500662623409</v>
+        <v>0.3331071386186554</v>
       </c>
     </row>
     <row r="16">
@@ -1129,7 +1129,7 @@
         <v>0.06857408634365011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2356797369030045</v>
+        <v>0.2356797369030046</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0539333621116662</v>
@@ -1165,37 +1165,37 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.1182050282031936</v>
+        <v>0.1200975736065602</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1054830361092654</v>
+        <v>0.1116471050127219</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1481531472786059</v>
+        <v>0.1489974844237163</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2233784691262146</v>
+        <v>0.2157843101769139</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1742103822634355</v>
+        <v>0.1732190428508867</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01281169803308483</v>
+        <v>0.01320330077747376</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2098095946012987</v>
+        <v>0.2136867644681057</v>
       </c>
     </row>
     <row r="18">
@@ -1207,37 +1207,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.5805933604958032</v>
+        <v>0.5434127770392958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2151032785510477</v>
+        <v>0.2312094606242715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4063530545820088</v>
+        <v>0.4146374987519514</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2518628273521545</v>
+        <v>0.3234760450764107</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3674734797345752</v>
+        <v>0.3617203191049476</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1575388246201491</v>
+        <v>0.182112860024558</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3528879870204271</v>
+        <v>0.3520527184174712</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1729782444257325</v>
+        <v>0.2025109282840954</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3663686097961178</v>
+        <v>0.374166074672505</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1396391884626926</v>
+        <v>0.1388284617733861</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3291283259168879</v>
+        <v>0.3342261542792195</v>
       </c>
     </row>
     <row r="19">
@@ -1267,7 +1267,7 @@
         <v>0.07749929506488222</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2558925420224611</v>
+        <v>0.2558925420224612</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07384154940154303</v>
@@ -1279,7 +1279,7 @@
         <v>0.07749929506488222</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2509898780925039</v>
+        <v>0.2509898780925038</v>
       </c>
     </row>
     <row r="20">
@@ -1294,28 +1294,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.01876613786528107</v>
+        <v>0.01827326980515416</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1209327868847612</v>
+        <v>0.1175795471373071</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02662320254000548</v>
+        <v>0.02724515551180546</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2039461489355892</v>
+        <v>0.2063449941230585</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01876613786528107</v>
+        <v>0.01827326980515416</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1209327868847612</v>
+        <v>0.1175795471373071</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02662320254000548</v>
+        <v>0.02724515551180546</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1935691882576316</v>
+        <v>0.1930216770271014</v>
       </c>
     </row>
     <row r="21">
@@ -1330,28 +1330,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.1691661833103054</v>
+        <v>0.1680532849182591</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2790669838057987</v>
+        <v>0.2733647860354287</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1607987242440932</v>
+        <v>0.1549427347029757</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3244103358075358</v>
+        <v>0.3317929575545696</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1691661833103054</v>
+        <v>0.1680532849182591</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2790669838057987</v>
+        <v>0.2733647860354287</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1607987242440932</v>
+        <v>0.1549427347029757</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3122533418377368</v>
+        <v>0.3150210659983773</v>
       </c>
     </row>
     <row r="22">
@@ -1411,37 +1411,37 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1660208817138445</v>
+        <v>0.1630121827764934</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1462091651070739</v>
+        <v>0.1471285561656999</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03048024010767878</v>
+        <v>0.02973223473409472</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2333236720035608</v>
+        <v>0.2334243700048573</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1324216367840526</v>
+        <v>0.1351737042238808</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03908399521043553</v>
+        <v>0.03861006345625238</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2246208533307316</v>
+        <v>0.2254627248018355</v>
       </c>
     </row>
     <row r="24">
@@ -1453,37 +1453,37 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3060113519715432</v>
+        <v>0.2946687869807828</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2622907015818028</v>
+        <v>0.2670277947605343</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1211184189592331</v>
+        <v>0.1192622368493256</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3147829510823251</v>
+        <v>0.3139969626414796</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2228574458251812</v>
+        <v>0.2255505554863973</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1071741928220492</v>
+        <v>0.1072439383526313</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2951803668325564</v>
+        <v>0.294430138340753</v>
       </c>
     </row>
     <row r="25">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +1789,7 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>3157</v>
+        <v>3092</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
@@ -1797,15 +1797,15 @@
         <v>3801</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2968</v>
+        <v>2911</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>5753</v>
+        <v>5337</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>4282</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="8">
@@ -1919,7 +1919,7 @@
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="M10" s="6" t="inlineStr"/>
       <c r="N10" s="6" t="n">
-        <v>1293</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11">
@@ -1939,25 +1939,25 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4167</v>
+        <v>4364</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>3077</v>
+        <v>3165</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4945</v>
+        <v>4705</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>5751</v>
+        <v>4943</v>
       </c>
       <c r="M11" s="6" t="inlineStr"/>
       <c r="N11" s="6" t="n">
-        <v>6411</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="12">
@@ -2063,23 +2063,23 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2059</v>
+        <v>2363</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>4125</v>
+        <v>4428</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>7642</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="15">
@@ -2093,23 +2093,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>7430</v>
+        <v>7833</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>7462</v>
+        <v>6575</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>11242</v>
+        <v>11166</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>7731</v>
+        <v>7703</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>16672</v>
+        <v>17146</v>
       </c>
     </row>
     <row r="16">
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7155</v>
+        <v>7463</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2231,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5570</v>
+        <v>5738</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1011</v>
+        <v>1028</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1514</v>
+        <v>868</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>15471</v>
+        <v>15278</v>
       </c>
     </row>
     <row r="19">
@@ -2255,37 +2255,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>8003</v>
+        <v>7208</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5800</v>
+        <v>7004</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18196</v>
+        <v>18655</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4137</v>
+        <v>4938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5514</v>
+        <v>4468</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8291</v>
+        <v>7889</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12947</v>
+        <v>12858</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5789</v>
+        <v>5672</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8811</v>
+        <v>8759</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>9977</v>
+        <v>10161</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28306</v>
+        <v>28243</v>
       </c>
     </row>
     <row r="20">
@@ -2389,37 +2389,37 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>2145</v>
+        <v>2179</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1979</v>
+        <v>2095</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9681</v>
+        <v>9736</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20073</v>
+        <v>19390</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>14545</v>
+        <v>14462</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>22790</v>
+        <v>23211</v>
       </c>
     </row>
     <row r="23">
@@ -2431,37 +2431,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>10534</v>
+        <v>9860</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5522</v>
+        <v>5936</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7624</v>
+        <v>7780</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4347</v>
+        <v>5584</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24013</v>
+        <v>23637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5635</v>
+        <v>6514</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>31711</v>
+        <v>31635</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4758</v>
+        <v>5570</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>30588</v>
+        <v>31239</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8579</v>
+        <v>8530</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>35751</v>
+        <v>36305</v>
       </c>
     </row>
     <row r="24">
@@ -2562,28 +2562,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>1125</v>
+        <v>1095</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12530</v>
+        <v>12183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2564</v>
+        <v>2624</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>23012</v>
+        <v>23283</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1125</v>
+        <v>1095</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>12530</v>
+        <v>12183</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2564</v>
+        <v>2624</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>22268</v>
+        <v>22205</v>
       </c>
     </row>
     <row r="27">
@@ -2598,28 +2598,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>10139</v>
+        <v>10072</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28914</v>
+        <v>28324</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>15485</v>
+        <v>14921</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>36605</v>
+        <v>37438</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10139</v>
+        <v>10072</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>28914</v>
+        <v>28324</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>15485</v>
+        <v>14921</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>35921</v>
+        <v>36239</v>
       </c>
     </row>
     <row r="28">
@@ -2723,37 +2723,37 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17386</v>
+        <v>17071</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>29867</v>
+        <v>30055</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5199</v>
+        <v>5072</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>62913</v>
+        <v>62940</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>37446</v>
+        <v>38224</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>9485</v>
+        <v>9370</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>84089</v>
+        <v>84404</v>
       </c>
     </row>
     <row r="31">
@@ -2765,37 +2765,37 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>32046</v>
+        <v>30858</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>53579</v>
+        <v>54547</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20660</v>
+        <v>20344</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>84878</v>
+        <v>84666</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>63020</v>
+        <v>63781</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>26008</v>
+        <v>26025</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>110504</v>
+        <v>110223</v>
       </c>
     </row>
     <row r="32">
